--- a/Dismiss-Stale-Reviews-Action-TCs-after-Improvements.xlsx
+++ b/Dismiss-Stale-Reviews-Action-TCs-after-Improvements.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Table 1</t>
   </si>
@@ -76,6 +76,28 @@
     <t>Reviews should be dismissed.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6432667609/job/17468080303#step:7:1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/pull/1</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Approved reviews are NOT dismissed when force-pushed changes don’t have a codeowner and the no-owner-action setting is set to dismiss-all </t>
   </si>
   <si>
@@ -85,18 +107,112 @@
     <t>Reviews should NOT be dismissed.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6432934782/job/17468906771#step:7:7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/pull/2</t>
+    </r>
+  </si>
+  <si>
+    <t>Log should have some more info statement about due to force-push-action is set to dismiss none, no reviews are dismissed.</t>
+  </si>
+  <si>
     <t>Approved reviews are NOT dismissed when changes don’t have a code owner and no-owner-action setting is set to dismiss-none</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433126360/job/17469521367#step:7:7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/pull/4</t>
+    </r>
+  </si>
+  <si>
     <t>Approved reviews are dismissed when changes don’t have a code owner and no-owner-action setting is set to dismiss-none, changes are force-pushed.</t>
   </si>
   <si>
     <t>Reviews NOT dismissed.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433179141/job/17469695966#step:7:7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/pull/5</t>
+    </r>
+  </si>
+  <si>
+    <t>Still no-owner-action take s priority</t>
+  </si>
+  <si>
     <t>Approved reviews are NOT dismissed when changes don’t have a code owner  are force-pushed, both no-owner-action and force-push-action set to dismiss-none</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433269771/job/17469996248#step:7:7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/pull/6</t>
+    </r>
+  </si>
+  <si>
     <t>Approved reviews are dismissed when new changes are relevant to the codeowner that already approved.</t>
   </si>
   <si>
@@ -106,19 +222,121 @@
     <t xml:space="preserve">No </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433350141/job/17470229624#step:7:7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/pull/7</t>
+    </r>
+  </si>
+  <si>
     <t>Approved reviews are NOT dismissed when new changes are relevant to the codeowner that already approved are force-pushed, force-push-action is set to dismiss-none.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433448050/job/17470526321#step:7:8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/pull/8</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Approved reviews are NOT dismissed when new changes have a codeowner but are not relevant to the code owner that already approved. </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/pull/9</t>
+    </r>
+  </si>
+  <si>
     <t>All reviews are dismissed when force-push occurs with setting force-push-action=dismiss-all.</t>
   </si>
   <si>
     <t>Rebasing locally + additional commit should cause dismissal of reviews due-to force-push, force-push-action is set to dismiss-all.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433689777/job/17471274480#step:7:8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/pull/12</t>
+    </r>
+  </si>
+  <si>
     <t>Updating branch with rebasing option from GitHub GUI should trigger dismissal of reviews.</t>
+  </si>
+  <si>
+    <t>Reviews are NOT dismissed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6434014963/job/17472336417#step:7:7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-improvements/pull/17</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -128,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -149,6 +367,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="7">
@@ -428,7 +652,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -471,7 +695,7 @@
     <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -492,31 +716,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -550,6 +783,461 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>366371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4292274</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1040458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Screenshot 2023-10-06 at 10.08.42 AM.png" descr="Screenshot 2023-10-06 at 10.08.42 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="1434441"/>
+          <a:ext cx="4297944" cy="674088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>271756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5226210</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1092322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Screenshot 2023-10-06 at 10.34.23 AM.png" descr="Screenshot 2023-10-06 at 10.34.23 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="3110841"/>
+          <a:ext cx="5231880" cy="820567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>323619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5226210</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1469539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Screenshot 2023-10-06 at 10.50.12 AM.png" descr="Screenshot 2023-10-06 at 10.50.12 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="4933719"/>
+          <a:ext cx="5231880" cy="1145921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5095426</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Screenshot 2023-10-06 at 11.00.41 AM.png" descr="Screenshot 2023-10-06 at 11.00.41 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="6536696"/>
+          <a:ext cx="5101095" cy="1625128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>282286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5226210</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1614195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Screenshot 2023-10-06 at 11.03.39 AM.png" descr="Screenshot 2023-10-06 at 11.03.39 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="8434416"/>
+          <a:ext cx="5231880" cy="1331910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>59723</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>364433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5160818</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2036923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Screenshot 2023-10-06 at 11.11.48 AM.png" descr="Screenshot 2023-10-06 at 11.11.48 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12442223" y="10287578"/>
+          <a:ext cx="5101095" cy="1672491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>301471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5054956</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1363373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Screenshot 2023-10-06 at 11.18.31 AM.png" descr="Screenshot 2023-10-06 at 11.18.31 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="12589991"/>
+          <a:ext cx="5060625" cy="1061903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5226210</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1696454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Screenshot 2023-10-06 at 11.23.46 AM.png" descr="Screenshot 2023-10-06 at 11.23.46 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="14269335"/>
+          <a:ext cx="5231880" cy="1486655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>873195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5095426</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1838908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Screenshot 2023-10-06 at 11.49.55 AM.png" descr="Screenshot 2023-10-06 at 11.49.55 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="18474760"/>
+          <a:ext cx="5101095" cy="965714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>355483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5226210</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1391555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Screenshot 2023-10-06 at 12.17.35 PM.png" descr="Screenshot 2023-10-06 at 12.17.35 PM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="20816453"/>
+          <a:ext cx="5231880" cy="1036073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1586,7 +2274,7 @@
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.6406" style="1" customWidth="1"/>
     <col min="3" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="60.2344" style="1" customWidth="1"/>
+    <col min="11" max="11" width="68.6562" style="1" customWidth="1"/>
     <col min="12" max="14" width="16.3516" style="1" customWidth="1"/>
     <col min="15" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1685,8 +2373,12 @@
         <v>20</v>
       </c>
       <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="L3" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s" s="14">
+        <v>22</v>
+      </c>
       <c r="N3" s="15"/>
     </row>
     <row r="4" ht="139.45" customHeight="1">
@@ -1694,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="18">
         <v>16</v>
@@ -1709,64 +2401,74 @@
         <v>18</v>
       </c>
       <c r="G4" t="s" s="18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s" s="18">
         <v>19</v>
       </c>
       <c r="I4" t="s" s="19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s" s="19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
+      <c r="L4" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" ht="139.45" customHeight="1">
       <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="22">
+      <c r="B5" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="24">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s" s="24">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="23">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s" s="23">
+      <c r="G5" t="s" s="24">
         <v>18</v>
       </c>
-      <c r="H5" t="s" s="23">
+      <c r="H5" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="I5" t="s" s="24">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s" s="24">
-        <v>23</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26"/>
+      <c r="I5" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s" s="27">
+        <v>31</v>
+      </c>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" ht="139.45" customHeight="1">
       <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="17">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="18">
         <v>16</v>
@@ -1778,7 +2480,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s" s="18">
         <v>18</v>
@@ -1786,68 +2488,78 @@
       <c r="H6" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="I6" t="s" s="27">
+      <c r="I6" t="s" s="29">
         <v>20</v>
       </c>
-      <c r="J6" t="s" s="27">
-        <v>26</v>
+      <c r="J6" t="s" s="29">
+        <v>33</v>
       </c>
       <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
+      <c r="L6" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s" s="21">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s" s="22">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" ht="139.45" customHeight="1">
       <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="22">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s" s="23">
+      <c r="B7" t="s" s="23">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="24">
         <v>16</v>
       </c>
-      <c r="D7" t="s" s="23">
+      <c r="D7" t="s" s="24">
         <v>17</v>
       </c>
-      <c r="E7" t="s" s="23">
+      <c r="E7" t="s" s="24">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s" s="23">
+      <c r="F7" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="I7" t="s" s="27">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s" s="27">
-        <v>23</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
+      <c r="I7" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" t="s" s="27">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s" s="27">
+        <v>39</v>
+      </c>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" ht="186.25" customHeight="1">
       <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" t="s" s="17">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="18">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s" s="18">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s" s="18">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s" s="18">
         <v>18</v>
@@ -1858,68 +2570,76 @@
       <c r="H8" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="I8" t="s" s="24">
+      <c r="I8" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="J8" t="s" s="24">
+      <c r="J8" t="s" s="25">
         <v>20</v>
       </c>
       <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
+      <c r="L8" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s" s="21">
+        <v>44</v>
+      </c>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" ht="139.45" customHeight="1">
       <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="22">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s" s="23">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s" s="23">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s" s="23">
+      <c r="B9" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="24">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s" s="24">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s" s="24">
         <v>18</v>
       </c>
-      <c r="G9" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s" s="23">
+      <c r="G9" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="I9" t="s" s="24">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s" s="24">
-        <v>23</v>
-      </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26"/>
+      <c r="I9" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" t="s" s="27">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s" s="27">
+        <v>47</v>
+      </c>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" ht="139.45" customHeight="1">
       <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="B10" t="s" s="17">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="18">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s" s="18">
         <v>16</v>
       </c>
       <c r="E10" t="s" s="18">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s" s="18">
         <v>18</v>
@@ -1930,63 +2650,67 @@
       <c r="H10" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="I10" t="s" s="24">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s" s="24">
-        <v>23</v>
+      <c r="I10" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s" s="25">
+        <v>25</v>
       </c>
       <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
+      <c r="L10" t="s" s="21">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s" s="21">
+        <v>49</v>
+      </c>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" ht="139.45" customHeight="1">
       <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="22">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s" s="23">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s" s="23">
+      <c r="B11" t="s" s="23">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s" s="24">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s" s="24">
         <v>16</v>
       </c>
-      <c r="E11" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s" s="23">
+      <c r="E11" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s" s="24">
         <v>18</v>
       </c>
-      <c r="G11" t="s" s="23">
+      <c r="G11" t="s" s="24">
         <v>18</v>
       </c>
-      <c r="H11" t="s" s="23">
+      <c r="H11" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="I11" t="s" s="28">
+      <c r="I11" t="s" s="32">
         <v>20</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" ht="225.15" customHeight="1">
       <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="B12" t="s" s="17">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s" s="18">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s" s="18">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s" s="18">
         <v>17</v>
@@ -2000,53 +2724,86 @@
       <c r="H12" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="I12" t="s" s="29">
+      <c r="I12" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="J12" t="s" s="29">
+      <c r="J12" t="s" s="25">
         <v>20</v>
       </c>
       <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
+      <c r="L12" t="s" s="21">
+        <v>52</v>
+      </c>
+      <c r="M12" t="s" s="21">
+        <v>53</v>
+      </c>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" ht="139.45" customHeight="1">
       <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="22">
-        <v>35</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" t="s" s="23">
+      <c r="B13" t="s" s="23">
+        <v>54</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" t="s" s="24">
         <v>18</v>
       </c>
-      <c r="G13" t="s" s="23">
+      <c r="G13" t="s" s="24">
         <v>18</v>
       </c>
-      <c r="H13" t="s" s="23">
+      <c r="H13" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="I13" t="s" s="28">
+      <c r="I13" t="s" s="29">
         <v>20</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
+      <c r="J13" t="s" s="29">
+        <v>55</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" t="s" s="27">
+        <v>56</v>
+      </c>
+      <c r="M13" t="s" s="27">
+        <v>57</v>
+      </c>
+      <c r="N13" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6432667609/job/17468080303#step:7:1"/>
+    <hyperlink ref="M3" r:id="rId2" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/1"/>
+    <hyperlink ref="L4" r:id="rId3" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6432934782/job/17468906771#step:7:7"/>
+    <hyperlink ref="M4" r:id="rId4" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/2"/>
+    <hyperlink ref="L5" r:id="rId5" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433126360/job/17469521367#step:7:7"/>
+    <hyperlink ref="M5" r:id="rId6" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/4"/>
+    <hyperlink ref="L6" r:id="rId7" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433179141/job/17469695966#step:7:7"/>
+    <hyperlink ref="M6" r:id="rId8" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/5"/>
+    <hyperlink ref="L7" r:id="rId9" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433269771/job/17469996248#step:7:7"/>
+    <hyperlink ref="M7" r:id="rId10" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/6"/>
+    <hyperlink ref="L8" r:id="rId11" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433350141/job/17470229624#step:7:7"/>
+    <hyperlink ref="M8" r:id="rId12" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/7"/>
+    <hyperlink ref="L9" r:id="rId13" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433448050/job/17470526321#step:7:8"/>
+    <hyperlink ref="M9" r:id="rId14" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/8"/>
+    <hyperlink ref="L10" r:id="rId15" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/9"/>
+    <hyperlink ref="M10" r:id="rId16" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/9"/>
+    <hyperlink ref="L12" r:id="rId17" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6433689777/job/17471274480#step:7:8"/>
+    <hyperlink ref="M12" r:id="rId18" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/12"/>
+    <hyperlink ref="L13" r:id="rId19" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/actions/runs/6434014963/job/17472336417#step:7:7"/>
+    <hyperlink ref="M13" r:id="rId20" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-improvements/pull/17"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>